--- a/Assets/EquipmentSkill.xlsx
+++ b/Assets/EquipmentSkill.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="10356"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>skillId</t>
   </si>
@@ -33,12 +33,21 @@
     <t>打野</t>
   </si>
   <si>
+    <t>增加20%对野怪的伤害，击杀野怪获得经验提升20%。</t>
+  </si>
+  <si>
     <t>移速</t>
   </si>
   <si>
+    <t>增加30%的移动速度</t>
+  </si>
+  <si>
     <t>奉献</t>
   </si>
   <si>
+    <t>如果自己的经济或经验是己方最低，每3秒额外获得5点经济或经验。</t>
+  </si>
+  <si>
     <t>残废</t>
   </si>
   <si>
@@ -46,213 +55,148 @@
   </si>
   <si>
     <t>护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+60护甲穿透</t>
   </si>
   <si>
     <t>破魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加等同于自身物理攻击40%的法术防御，最多增加300点。</t>
   </si>
   <si>
     <t>暗幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫致命伤并免疫伤害、增加20%移动速度持续1秒近战/0.5秒远程，90秒冷却。</t>
   </si>
   <si>
     <t>+45%物理护甲穿透</t>
   </si>
   <si>
-    <t>免疫致命伤并免疫伤害、增加20%移动速度持续1秒近战/0.5秒远程，90秒冷却。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加等同于自身物理攻击40%的法术防御，最多增加300点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果自己的经济或经验是己方最低，每3秒额外获得5点经济或经验。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加20%对野怪的伤害，击杀野怪获得经验提升20%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>碎冰</t>
   </si>
   <si>
     <t>普攻会减少目标30%攻速和移速，持续2秒，远程英雄使用时减速效果持续时间衰减为1秒。</t>
   </si>
   <si>
-    <t>增加30%的移动速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎冰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>精准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>普通攻击附带20-34点物理伤害（随等级提升）</t>
   </si>
   <si>
     <t>重伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>造成伤害使得目标的生命恢复效果减少50%，持续1.5秒(如果该伤害由普攻触发，则持续时间延长至3秒)</t>
   </si>
   <si>
     <t>嗜血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增加20%法术吸血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>强击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使用技能后，下一次普通攻击附加50%物理攻击(+30%法术加成)法术伤害，这个效果有2秒的冷却时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>法穿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>75法术穿透</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>英勇奖赏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>升级后在3秒内回复20%生命值与法力值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>法力护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生命值低于30%时，获得一个吸收450~1500(+50%法术加成)伤害的护盾，这个效果有90秒的冷却时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成伤害使得目标的生命恢复效果减少50%，持续1.5秒(如果该伤害由普攻触发，则持续时间延长至3秒)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>献祭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每秒对身边的敌军造成60点法术伤害,每升1级增加2点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>寒铁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>受到攻击会减少攻击者30%攻击速度,持续3秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>荆棘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>受到物理伤害时，会将伤害量的15%以法术伤害的形式回敬给对方（按照计算伤害减免之前的初始伤害值计算）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>减伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>减少15%受到普通攻击的伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>韧性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增加%35韧性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法穿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增加75法术穿透</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>神行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>脱离战斗后增加60移动速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增加60移动速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>血怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生命值低于30%时获得血怒，增加40点攻击与强大护盾持续8秒，效果有90秒CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打野</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增加30%对野怪的伤害，击杀野怪获得经验提升30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>磨砺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>击杀野怪增加自身8点法术强度,最多叠加15层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>击杀野怪增加自身70点最大生命,最多叠加15层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>击杀野怪增加自身2%攻击速度,最多叠加15层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,20 +205,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -282,9 +551,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -299,10 +810,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -593,17 +1151,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="18.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="18.8833333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6666666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="102" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
   </cols>
@@ -633,7 +1192,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -644,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -658,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -672,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -686,10 +1245,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -700,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
@@ -714,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -728,10 +1287,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -742,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -854,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -868,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -882,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -896,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -910,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -924,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -938,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -952,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -966,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -980,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -994,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1008,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1022,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1036,43 +1595,49 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>